--- a/Documents/Examples/Alexion_NCT04573309_Wilsons/Alexion_NCT04573309_Wilsons.xlsx
+++ b/Documents/Examples/Alexion_NCT04573309_Wilsons/Alexion_NCT04573309_Wilsons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/protocols/Alexion_NCT04573309_Wilsons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204B287D-A135-9A43-BD66-471E867F2D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB15162-F118-604F-BC75-1605F3CCF996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41780" yWindow="500" windowWidth="45660" windowHeight="25420" firstSheet="19" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41780" yWindow="500" windowWidth="45660" windowHeight="25420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3712" uniqueCount="1735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3715" uniqueCount="1738">
   <si>
     <t>name</t>
   </si>
@@ -7404,6 +7404,15 @@
   </si>
   <si>
     <t>Country: USA</t>
+  </si>
+  <si>
+    <t>populationSubset</t>
+  </si>
+  <si>
+    <t>intercurrentEventText</t>
+  </si>
+  <si>
+    <t>template</t>
   </si>
 </sst>
 </file>
@@ -7718,11 +7727,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -16077,10 +16086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16093,7 +16102,7 @@
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>50</v>
       </c>
@@ -16115,8 +16124,11 @@
       <c r="G1" s="31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="31" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -16139,7 +16151,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -16162,7 +16174,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
@@ -16185,7 +16197,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -16208,7 +16220,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9"/>
@@ -16216,7 +16228,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9"/>
@@ -16224,7 +16236,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9"/>
@@ -16232,7 +16244,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9"/>
@@ -16934,10 +16946,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16946,11 +16958,12 @@
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="61.83203125" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="9" max="10" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>952</v>
       </c>
@@ -16961,19 +16974,25 @@
         <v>954</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>955</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>956</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>957</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>958</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>959</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>957</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>1736</v>
       </c>
     </row>
   </sheetData>
@@ -18638,7 +18657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -18660,7 +18679,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1049</v>
       </c>
@@ -22295,7 +22314,7 @@
       <c r="A1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>98</v>
       </c>
       <c r="C1" s="54"/>
@@ -22307,7 +22326,7 @@
       <c r="A2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="55" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="54"/>
@@ -22319,7 +22338,7 @@
       <c r="A3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="53" t="s">
         <v>102</v>
       </c>
       <c r="C3" s="54"/>
@@ -22331,7 +22350,7 @@
       <c r="A4" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="53" t="s">
         <v>104</v>
       </c>
       <c r="C4" s="54"/>
@@ -22343,7 +22362,7 @@
       <c r="A5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="55" t="s">
         <v>106</v>
       </c>
       <c r="C5" s="54"/>
@@ -22355,7 +22374,7 @@
       <c r="A6" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="55" t="s">
         <v>108</v>
       </c>
       <c r="C6" s="54"/>
@@ -22367,7 +22386,7 @@
       <c r="A7" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="53" t="s">
         <v>110</v>
       </c>
       <c r="C7" s="54"/>
@@ -22379,7 +22398,7 @@
       <c r="A8" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="55" t="s">
         <v>112</v>
       </c>
       <c r="C8" s="54"/>
@@ -22391,7 +22410,7 @@
       <c r="A9" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="55" t="s">
         <v>114</v>
       </c>
       <c r="C9" s="54"/>
@@ -22403,7 +22422,7 @@
       <c r="A10" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="55" t="s">
         <v>116</v>
       </c>
       <c r="C10" s="54"/>
@@ -22415,7 +22434,7 @@
       <c r="A11" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="55" t="s">
         <v>117</v>
       </c>
       <c r="C11" s="54"/>
@@ -22427,7 +22446,7 @@
       <c r="A12" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="53" t="s">
         <v>119</v>
       </c>
       <c r="C12" s="54"/>
@@ -22480,11 +22499,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B10:E10"/>
@@ -22492,6 +22506,11 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Documents/Examples/Alexion_NCT04573309_Wilsons/Alexion_NCT04573309_Wilsons.xlsx
+++ b/Documents/Examples/Alexion_NCT04573309_Wilsons/Alexion_NCT04573309_Wilsons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/protocols/Alexion_NCT04573309_Wilsons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97A9A2F-6BCB-FE4C-AAC5-7E339CDC86C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1574A11-DECA-5246-9629-A3BC9479E247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="49200" windowHeight="25420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="49200" windowHeight="25420" firstSheet="19" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -3235,9 +3235,6 @@
   </si>
   <si>
     <t>StudyDesignPopulation</t>
-  </si>
-  <si>
-    <t>@plannedAge/Range/@minValue</t>
   </si>
   <si>
     <t>CT Version</t>
@@ -3781,99 +3778,7 @@
     <t>NCI_22</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;i&gt;Age&lt;/i&gt;&lt;/p&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN01" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN01" attribute="text"/&gt;
-&lt;i&gt;Type of Participants and Disease Characteristics&lt;/i&gt;&lt;/p&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN02" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN02" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN03" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN03" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN04" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN04" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN05" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN05" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN06" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN06" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN07" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN07" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN08" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN08" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN09" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN09" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN10" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN10" attribute="text"/&gt;
-&lt;p&gt;&lt;i&gt;Sex&lt;/i&gt;&lt;/p&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN11" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN11" attribute="text"/&gt;
-&lt;i&gt;Informed Consent&lt;/i&gt;&lt;/p&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN12" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN12" attribute="text"/&gt;
-&lt;p&gt;&lt;b&gt;5.2. Exclusion Criteria&lt;/b&gt;&lt;/span&gt;&lt;span class="s22"&gt;&lt;b&gt;x&lt;/b&gt;&lt;/span&gt;&lt;span class="s20"&gt;&lt;b&gt;c&lt;/b&gt;&lt;/span&gt;&lt;span class="s37"&gt;&lt;b&gt;l&lt;/b&gt;&lt;/span&gt;&lt;span class="s19"&gt;&lt;b&gt;u&lt;/b&gt;&lt;/span&gt;&lt;span class="s20"&gt;&lt;b&gt;s&lt;/b&gt;&lt;/span&gt;&lt;span class="s37"&gt;&lt;b&gt;i&lt;/b&gt;&lt;/span&gt;&lt;span class="s22"&gt;&lt;b&gt;on&lt;/b&gt;&lt;/span&gt; &lt;span class="s21"&gt;&lt;b&gt;C&lt;/b&gt;&lt;/span&gt;&lt;span class="s20"&gt;&lt;b&gt;r&lt;/b&gt;&lt;/span&gt;&lt;span class="s37"&gt;&lt;b&gt;it&lt;/b&gt;&lt;/span&gt;&lt;span class="s20"&gt;&lt;b&gt;er&lt;/b&gt;&lt;/span&gt;&lt;span class="s37"&gt;&lt;b&gt;i&lt;/b&gt;&lt;/span&gt;&lt;span class="s22"&gt;&lt;b&gt;a&lt;/b&gt;&lt;/span&gt;
-&lt;i&gt;Medical Conditions&lt;/i&gt;&lt;/p&gt;
-&lt;p&gt;1. Decompensated cirrhosis or model for end-stage liver disease (MELD) score &amp;gt; 13.&lt;/p&gt;
-&lt;p&gt;2. Modified Nazer score &amp;gt; 7 (Dhawan, 2005).&lt;/p&gt;
-&lt;p&gt;3. Clinically significant gastrointestinal bleed within past 3 months.&lt;/p&gt;
-&lt;p&gt;4. Alanine aminotransferase (ALT) &amp;gt; 2 × upper limit of normal (ULN).&lt;/p&gt;
-&lt;p&gt;5. Marked neurological disease requiring assistance with self-care or activities of daily life.&lt;/p&gt;
-&lt;p&gt;6. Hemoglobin less than lower limit of the reference range for age and sex.&lt;/p&gt;
-&lt;p&gt;7. Active infection with hepatitis B virus (positive hepatitis B surface antigen) or C virus 
-(participants with positive hepatitis C antibody result would require confirmation of 
-active disease with a positive hepatitis C polymerase chain reaction test), or seropositivity 
-for human immunodeficiency virus (HIV).&lt;/p&gt;
-&lt;p&gt;ALXN1840-WD-204&lt;/p&gt;
-&lt;p&gt;8. History or presence of/significant history of or current cardiovascular, respiratory, hepatic, 
-renal, gastrointestinal, endocrinological, hematological, or neurological disorders, or 
-psychiatric disorder that in the opinion of the Investigator may constitute a risk when 
-taking the study intervention; or may interfere with the interpretation of data. 
-&lt;i&gt;Prior/Concomitant Therapy&lt;/i&gt;&lt;/p&gt;
-&lt;p&gt;9. Previous treatment with ALXN1840 or other form of tetrathiomolybdate within 1 year prior 
-to dosing.&lt;/p&gt;
-&lt;p&gt;10. Previous treatment with zinc within 21 days prior to Day 1. 
-&lt;i&gt;Prior/Concurrent Clinical Study Experience&lt;/i&gt;&lt;/p&gt;
-&lt;p&gt;11. The use of an experimental or unapproved/unlicensed therapy at the same time or within 90 
-days or 5 half-lives, whichever is longer, prior to the Screening Visit. 
-&lt;i&gt;Diagnostic Assessments&lt;/i&gt;&lt;/p&gt;
-&lt;p&gt;12. Participants in renal failure, defined as in end-stage renal disease on dialysis (chronic kidney 
-disease [CKD] stage 5) or creatinine clearance &amp;lt; 30 mL/min (Levey, 2006). 
-&lt;i&gt;Other Exclusions&lt;/i&gt;&lt;/p&gt;
-&lt;p&gt;13. Pregnant (or females who are planning to become pregnant) or breastfeeding females 
-(women of childbearing potential must have a negative serum pregnancy test result at 
-screening).&lt;/p&gt;
-&lt;p&gt;14. Known sensitivity to ALXN1840, ALXN1840 excipients (anhydrous dicalcium phosphate, 
-anhydrous sodium carbonate), or any of the ingredients contained in ALXN1840 or 
-related compounds.&lt;/p&gt;
-&lt;p&gt;15. In the opinion of the Investigator, the participant and/or their legal guardian is likely to be 
-non-compliant or uncooperative during the study.&lt;/p&gt;
-&lt;p&gt;16. History of illicit drug abuse, history of significant alcohol abuse within 1 year prior to the 
-Screening Visit, or clinical evidence of substance and/or alcohol abuse within the 2 years 
-before screening. Alcohol abuse is defined as regular weekly intake of more than 14 units 
-(for both males and females), using the following National Health Service (NHS) alcohol 
-tracker http://www.nhs.uk/Tools/Pages/drinks-tracker.aspx.&lt;/p&gt;
-&lt;p&gt;17. Positive urine drug toxicology screen at Screening or on Day -8 (cannabinoids will not be 
-tested).&lt;/p&gt;
-&lt;p&gt;18. Alcohol consumption within 48 hours prior to study intervention administration or positive 
-alcohol breath test at screening or on Day -8.&lt;/p&gt;
-&lt;p&gt;19. Participants unwilling to consistently complete every meal and tolerate a controlled, limited 
-menu for the duration of the study.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>NCI_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;i&gt;Medical Conditions&lt;/i&gt;&lt;/p&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX01" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX01" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX02" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX02" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX03" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX03" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX04" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX04" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX05" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX05" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX06" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX06" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX07" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX07" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX08" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX08" attribute="text"/&gt;
-&lt;p&gt;&lt;i&gt;Prior/Concomitant Therapy&lt;/i&gt;&lt;/p&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX09" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX09" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX10" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX10" attribute="text"/&gt;
-&lt;p&gt;&lt;i&gt;Prior/Concurrent Clinical Study Experience&lt;/i&gt;&lt;/p&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX11" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX11" attribute="text"/&gt;
-&lt;p&gt;&lt;i&gt;Diagnostic Assessments&lt;/i&gt;&lt;/p&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX12" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX12" attribute="text"/&gt;
-&lt;p&gt;&lt;i&gt;Other Exclusions&lt;/i&gt;&lt;/p&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX13" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX13" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX14" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX14" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX15" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX15" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX16" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX16" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX17" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX17" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX18" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX18" attribute="text"/&gt;
-&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX19" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX19" attribute="text"/&gt;
-</t>
   </si>
   <si>
     <t>NCI_24</t>
@@ -7420,6 +7325,101 @@
   </si>
   <si>
     <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;i&gt;Age&lt;/i&gt;&lt;/p&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN01" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="IN01" attribute="text"/&gt;
+&lt;i&gt;Type of Participants and Disease Characteristics&lt;/i&gt;&lt;/p&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN02" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="IN02" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN03" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="IN03" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN04" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="IN04" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN05" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="IN05" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN06" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="IN06" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN07" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="IN07" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN08" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="IN08" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN09" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="IN09" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN10" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="IN10" attribute="text"/&gt;
+&lt;p&gt;&lt;i&gt;Sex&lt;/i&gt;&lt;/p&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN11" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="IN11" attribute="text"/&gt;
+&lt;i&gt;Informed Consent&lt;/i&gt;&lt;/p&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="IN12" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="IN12" attribute="text"/&gt;
+&lt;p&gt;&lt;b&gt;5.2. Exclusion Criteria&lt;/b&gt;&lt;/span&gt;&lt;span class="s22"&gt;&lt;b&gt;x&lt;/b&gt;&lt;/span&gt;&lt;span class="s20"&gt;&lt;b&gt;c&lt;/b&gt;&lt;/span&gt;&lt;span class="s37"&gt;&lt;b&gt;l&lt;/b&gt;&lt;/span&gt;&lt;span class="s19"&gt;&lt;b&gt;u&lt;/b&gt;&lt;/span&gt;&lt;span class="s20"&gt;&lt;b&gt;s&lt;/b&gt;&lt;/span&gt;&lt;span class="s37"&gt;&lt;b&gt;i&lt;/b&gt;&lt;/span&gt;&lt;span class="s22"&gt;&lt;b&gt;on&lt;/b&gt;&lt;/span&gt; &lt;span class="s21"&gt;&lt;b&gt;C&lt;/b&gt;&lt;/span&gt;&lt;span class="s20"&gt;&lt;b&gt;r&lt;/b&gt;&lt;/span&gt;&lt;span class="s37"&gt;&lt;b&gt;it&lt;/b&gt;&lt;/span&gt;&lt;span class="s20"&gt;&lt;b&gt;er&lt;/b&gt;&lt;/span&gt;&lt;span class="s37"&gt;&lt;b&gt;i&lt;/b&gt;&lt;/span&gt;&lt;span class="s22"&gt;&lt;b&gt;a&lt;/b&gt;&lt;/span&gt;
+&lt;i&gt;Medical Conditions&lt;/i&gt;&lt;/p&gt;
+&lt;p&gt;1. Decompensated cirrhosis or model for end-stage liver disease (MELD) score &amp;gt; 13.&lt;/p&gt;
+&lt;p&gt;2. Modified Nazer score &amp;gt; 7 (Dhawan, 2005).&lt;/p&gt;
+&lt;p&gt;3. Clinically significant gastrointestinal bleed within past 3 months.&lt;/p&gt;
+&lt;p&gt;4. Alanine aminotransferase (ALT) &amp;gt; 2 × upper limit of normal (ULN).&lt;/p&gt;
+&lt;p&gt;5. Marked neurological disease requiring assistance with self-care or activities of daily life.&lt;/p&gt;
+&lt;p&gt;6. Hemoglobin less than lower limit of the reference range for age and sex.&lt;/p&gt;
+&lt;p&gt;7. Active infection with hepatitis B virus (positive hepatitis B surface antigen) or C virus 
+(participants with positive hepatitis C antibody result would require confirmation of 
+active disease with a positive hepatitis C polymerase chain reaction test), or seropositivity 
+for human immunodeficiency virus (HIV).&lt;/p&gt;
+&lt;p&gt;ALXN1840-WD-204&lt;/p&gt;
+&lt;p&gt;8. History or presence of/significant history of or current cardiovascular, respiratory, hepatic, 
+renal, gastrointestinal, endocrinological, hematological, or neurological disorders, or 
+psychiatric disorder that in the opinion of the Investigator may constitute a risk when 
+taking the study intervention; or may interfere with the interpretation of data. 
+&lt;i&gt;Prior/Concomitant Therapy&lt;/i&gt;&lt;/p&gt;
+&lt;p&gt;9. Previous treatment with ALXN1840 or other form of tetrathiomolybdate within 1 year prior 
+to dosing.&lt;/p&gt;
+&lt;p&gt;10. Previous treatment with zinc within 21 days prior to Day 1. 
+&lt;i&gt;Prior/Concurrent Clinical Study Experience&lt;/i&gt;&lt;/p&gt;
+&lt;p&gt;11. The use of an experimental or unapproved/unlicensed therapy at the same time or within 90 
+days or 5 half-lives, whichever is longer, prior to the Screening Visit. 
+&lt;i&gt;Diagnostic Assessments&lt;/i&gt;&lt;/p&gt;
+&lt;p&gt;12. Participants in renal failure, defined as in end-stage renal disease on dialysis (chronic kidney 
+disease [CKD] stage 5) or creatinine clearance &amp;lt; 30 mL/min (Levey, 2006). 
+&lt;i&gt;Other Exclusions&lt;/i&gt;&lt;/p&gt;
+&lt;p&gt;13. Pregnant (or females who are planning to become pregnant) or breastfeeding females 
+(women of childbearing potential must have a negative serum pregnancy test result at 
+screening).&lt;/p&gt;
+&lt;p&gt;14. Known sensitivity to ALXN1840, ALXN1840 excipients (anhydrous dicalcium phosphate, 
+anhydrous sodium carbonate), or any of the ingredients contained in ALXN1840 or 
+related compounds.&lt;/p&gt;
+&lt;p&gt;15. In the opinion of the Investigator, the participant and/or their legal guardian is likely to be 
+non-compliant or uncooperative during the study.&lt;/p&gt;
+&lt;p&gt;16. History of illicit drug abuse, history of significant alcohol abuse within 1 year prior to the 
+Screening Visit, or clinical evidence of substance and/or alcohol abuse within the 2 years 
+before screening. Alcohol abuse is defined as regular weekly intake of more than 14 units 
+(for both males and females), using the following National Health Service (NHS) alcohol 
+tracker http://www.nhs.uk/Tools/Pages/drinks-tracker.aspx.&lt;/p&gt;
+&lt;p&gt;17. Positive urine drug toxicology screen at Screening or on Day -8 (cannabinoids will not be 
+tested).&lt;/p&gt;
+&lt;p&gt;18. Alcohol consumption within 48 hours prior to study intervention administration or positive 
+alcohol breath test at screening or on Day -8.&lt;/p&gt;
+&lt;p&gt;19. Participants unwilling to consistently complete every meal and tolerate a controlled, limited 
+menu for the duration of the study.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;i&gt;Medical Conditions&lt;/i&gt;&lt;/p&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX01" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX01" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX02" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX02" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX03" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX03" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX04" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX04" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX05" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX05" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX06" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX06" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX07" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX07" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX08" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX08" attribute="text"/&gt;
+&lt;p&gt;&lt;i&gt;Prior/Concomitant Therapy&lt;/i&gt;&lt;/p&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX09" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX09" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX10" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX10" attribute="text"/&gt;
+&lt;p&gt;&lt;i&gt;Prior/Concurrent Clinical Study Experience&lt;/i&gt;&lt;/p&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX11" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX11" attribute="text"/&gt;
+&lt;p&gt;&lt;i&gt;Diagnostic Assessments&lt;/i&gt;&lt;/p&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX12" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX12" attribute="text"/&gt;
+&lt;p&gt;&lt;i&gt;Other Exclusions&lt;/i&gt;&lt;/p&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX13" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX13" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX14" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX14" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX15" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX15" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX16" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX16" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX17" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX17" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX18" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX18" attribute="text"/&gt;
+&lt;usdm:macro id="xref" klass="EligibilityCriterion" name="EX19" attribute="identifier"/&gt; &lt;usdm:macro id="xref" klass="EligibilityCriterionItem" name="EX19" attribute="text"/&gt;
+</t>
+  </si>
+  <si>
+    <t>@plannedAge/Range/@minValue/Quantity/value</t>
   </si>
 </sst>
 </file>
@@ -7735,11 +7735,11 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -8328,16 +8328,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>1627</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>1630</v>
-      </c>
       <c r="C19" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="D19" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="E19" t="s">
         <v>34</v>
@@ -8351,16 +8351,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="C20" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="D20" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="E20" t="s">
         <v>34</v>
@@ -8374,16 +8374,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C21" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="D21" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="E21" t="s">
         <v>34</v>
@@ -8397,16 +8397,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="C22" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="D22" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="E22" t="s">
         <v>34</v>
@@ -9764,7 +9764,7 @@
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
@@ -10272,7 +10272,7 @@
     </row>
     <row r="21" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
@@ -10475,7 +10475,7 @@
     </row>
     <row r="27" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
@@ -10568,7 +10568,7 @@
     </row>
     <row r="31" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="4"/>
@@ -10855,7 +10855,7 @@
     </row>
     <row r="35" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="4"/>
@@ -10978,7 +10978,7 @@
     </row>
     <row r="37" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="4"/>
@@ -11524,7 +11524,7 @@
     </row>
     <row r="45" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="B45" s="5"/>
       <c r="D45" s="2"/>
@@ -11900,7 +11900,7 @@
     </row>
     <row r="51" spans="1:55" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="B51" s="5"/>
     </row>
@@ -15544,7 +15544,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -15845,93 +15845,93 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="B39" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="D39" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="B40" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="B41" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="B42" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="B43" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="B44" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="B45" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="C45" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="B46" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="C46" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
     </row>
   </sheetData>
@@ -15972,7 +15972,7 @@
         <v>52</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>53</v>
@@ -15981,7 +15981,7 @@
         <v>28</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
@@ -16004,7 +16004,7 @@
         <v>59</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
@@ -16027,7 +16027,7 @@
         <v>59</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -16050,7 +16050,7 @@
         <v>59</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
@@ -16067,13 +16067,13 @@
         <v>58</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -17015,7 +17015,7 @@
         <v>946</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>947</v>
@@ -17033,7 +17033,7 @@
         <v>949</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
   </sheetData>
@@ -18279,7 +18279,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>109</v>
@@ -18288,27 +18288,27 @@
         <v>806</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C2" t="s">
         <v>1620</v>
       </c>
-      <c r="B2" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1623</v>
-      </c>
       <c r="E2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F2" t="s">
         <v>1621</v>
       </c>
-      <c r="F2" t="s">
-        <v>1624</v>
-      </c>
       <c r="G2" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
   </sheetData>
@@ -18334,13 +18334,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>132</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>27</v>
@@ -18357,7 +18357,7 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -18371,7 +18371,7 @@
         <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -18385,7 +18385,7 @@
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -18399,7 +18399,7 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
     </row>
   </sheetData>
@@ -18423,13 +18423,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -18437,135 +18437,135 @@
         <v>473</v>
       </c>
       <c r="B2" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="B3" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="B4" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="B5" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="B6" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="B7" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="B8" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="B9" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="B10" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="B11" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="B12" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="B13" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="B14" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B15" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="B16" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="B17" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="B18" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
     </row>
   </sheetData>
@@ -18599,25 +18599,25 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="B2" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
   </sheetData>
@@ -18629,8 +18629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18640,7 +18640,7 @@
     <col min="4" max="4" width="11.83203125" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -18686,7 +18686,7 @@
         <v>850</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1035</v>
+        <v>1739</v>
       </c>
     </row>
   </sheetData>
@@ -18698,8 +18698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18722,130 +18722,130 @@
     </row>
     <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>1041</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>1044</v>
       </c>
-      <c r="B4" s="40" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="40" t="s">
         <v>1046</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="288" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>1049</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="365" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>1051</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="395" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>1053</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B10" s="40" t="s">
         <v>1055</v>
       </c>
-      <c r="B10" s="40" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="40" t="s">
         <v>1057</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>1059</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="224" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>1061</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>1063</v>
       </c>
-      <c r="B14" s="40" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="40" t="s">
         <v>1065</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B16" s="40"/>
     </row>
     <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>1068</v>
       </c>
-      <c r="B17" s="40" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>1069</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>1070</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>101</v>
@@ -18853,694 +18853,694 @@
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B19" s="40" t="s">
         <v>1071</v>
       </c>
-      <c r="B19" s="40" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="320" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="335" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="B20" s="40" t="s">
         <v>1073</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B21" s="40" t="s">
         <v>1075</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B22" s="40" t="s">
         <v>1077</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>1079</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B24" s="40" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="B25" s="40" t="s">
         <v>1081</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="176" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="256" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="256" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="320" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="224" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="320" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="208" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B60" s="40" t="s">
         <v>1150</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="224" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B60" s="40" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="240" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B80" s="40" t="s">
         <v>1188</v>
-      </c>
-      <c r="B79" s="40" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B80" s="40" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="B84" s="40"/>
     </row>
-    <row r="85" spans="1:2" ht="288" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="350" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="240" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B95" s="40"/>
     </row>
     <row r="96" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="B96" s="40" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="B99" s="40" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="B100" s="40"/>
     </row>
     <row r="101" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="B101" s="40" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="B102" s="40" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="395" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="B104" s="40" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
   </sheetData>
@@ -19572,2119 +19572,2119 @@
         <v>0</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>1240</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="F1" s="46" t="s">
         <v>1241</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>854</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>854</v>
       </c>
       <c r="F2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F36" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F37" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F38" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F44" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F45" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F46" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F47" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F48" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F49" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F50" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F51" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F52" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F53" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F54" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D55" s="47" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F55" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D56" s="47" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F56" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="B57" s="47" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F58" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F59" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D60" s="47" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F60" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F61" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D62" s="47" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F62" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F63" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D64" s="47" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F64" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="B65" s="47" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D65" s="47" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F65" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D66" s="47" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F66" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F67" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="B68" s="47" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F68" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="B69" s="47" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D69" s="47" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F69" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="B70" s="47" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D70" s="47" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F70" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="B71" s="47" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D71" s="47" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F71" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="B72" s="47" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D72" s="47" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F72" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D73" s="47" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F73" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D74" s="47" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F74" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D75" s="47" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F75" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B76" s="47" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D76" s="47" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F76" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D77" s="47" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F77" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D78" s="47" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F78" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D79" s="47" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F79" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D80" s="47" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F80" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D81" s="47" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F81" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="B82" s="47" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D82" s="47" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F82" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="B83" s="47" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D83" s="47" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="E83" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F83" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="B84" s="47" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D84" s="47" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="E84" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F84" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="B85" s="47" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D85" s="47" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F85" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="B86" s="47" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="E86" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F86" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="B87" s="47" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F87" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="B88" s="47" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F88" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="B89" s="47" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F89" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="B90" s="47" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="E90" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F90" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="B91" s="47" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="E91" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F91" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="B92" s="47" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="E92" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F92" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="B93" s="47" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F93" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="B94" s="47" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F94" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="B95" s="47" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D95" s="47" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="E95" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F95" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="B96" s="47" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D96" s="47" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="E96" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F96" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="B97" s="47" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D97" s="47" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="E97" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F97" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="B98" s="47" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D98" s="47" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="E98" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F98" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="B99" s="47" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D99" s="47" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="E99" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F99" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="B100" s="47" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D100" s="47" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="E100" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F100" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="B101" s="47" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D101" s="47" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F101" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="B102" s="47" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D102" s="47" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F102" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="B103" s="47" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D103" s="47" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="E103" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F103" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="B104" s="47" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D104" s="47" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F104" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="B105" s="47" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D105" s="47" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F105" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="B106" s="47" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D106" s="47" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="E106" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F106" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
   </sheetData>
@@ -21705,34 +21705,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B1" t="s">
         <v>1036</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
   </sheetData>
@@ -21762,7 +21762,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>0</v>
@@ -21774,13 +21774,13 @@
         <v>26</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="F1" s="52" t="s">
         <v>50</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -21788,18 +21788,18 @@
         <v>54</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="9"/>
       <c r="E2" s="11" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -21807,18 +21807,18 @@
         <v>54</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="11" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -21826,18 +21826,18 @@
         <v>54</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="11" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -21845,18 +21845,18 @@
         <v>54</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="11" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -21864,18 +21864,18 @@
         <v>54</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="11" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -21883,18 +21883,18 @@
         <v>54</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="11" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -21902,18 +21902,18 @@
         <v>54</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="11" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -21921,18 +21921,18 @@
         <v>54</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="11" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -21940,18 +21940,18 @@
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="11" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -21959,18 +21959,18 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="11" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -21978,18 +21978,18 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="11" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -21997,18 +21997,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="11" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="187" x14ac:dyDescent="0.2">
@@ -22016,18 +22016,18 @@
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="11" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.2">
@@ -22035,16 +22035,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -22052,16 +22052,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -22069,16 +22069,16 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -22086,18 +22086,18 @@
         <v>62</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="11" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -22105,18 +22105,18 @@
         <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="11" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -22124,18 +22124,18 @@
         <v>62</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="11" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -22143,16 +22143,16 @@
         <v>144</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="136" x14ac:dyDescent="0.2">
@@ -22160,16 +22160,16 @@
         <v>144</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -22177,16 +22177,16 @@
         <v>144</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
     </row>
   </sheetData>
@@ -22210,7 +22210,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>69</v>
@@ -22218,7 +22218,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -22304,7 +22304,7 @@
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
@@ -22330,7 +22330,7 @@
         <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -22353,7 +22353,7 @@
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="E4" t="s">
         <v>86</v>
@@ -22376,7 +22376,7 @@
         <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="E5" t="s">
         <v>90</v>
@@ -22399,10 +22399,10 @@
         <v>127</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="F6" s="53" t="s">
         <v>74</v>
@@ -22421,7 +22421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
@@ -22437,7 +22437,7 @@
       <c r="A1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="54" t="s">
         <v>95</v>
       </c>
       <c r="C1" s="55"/>
@@ -22449,7 +22449,7 @@
       <c r="A2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="54" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="55"/>
@@ -22461,7 +22461,7 @@
       <c r="A3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="56" t="s">
         <v>99</v>
       </c>
       <c r="C3" s="55"/>
@@ -22473,7 +22473,7 @@
       <c r="A4" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="56" t="s">
         <v>101</v>
       </c>
       <c r="C4" s="55"/>
@@ -22485,7 +22485,7 @@
       <c r="A5" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="56" t="s">
         <v>103</v>
       </c>
       <c r="C5" s="55"/>
@@ -22497,7 +22497,7 @@
       <c r="A6" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="56" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="55"/>
@@ -22507,9 +22507,9 @@
     </row>
     <row r="7" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>1739</v>
-      </c>
-      <c r="B7" s="54" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B7" s="56" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="55"/>
@@ -22521,7 +22521,7 @@
       <c r="A8" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="56" t="s">
         <v>108</v>
       </c>
       <c r="C8" s="55"/>
@@ -22533,7 +22533,7 @@
       <c r="A9" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="56" t="s">
         <v>110</v>
       </c>
       <c r="C9" s="55"/>
@@ -22545,7 +22545,7 @@
       <c r="A10" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="56" t="s">
         <v>112</v>
       </c>
       <c r="C10" s="55"/>
@@ -22557,7 +22557,7 @@
       <c r="A11" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="56" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="55"/>
@@ -22569,7 +22569,7 @@
       <c r="A12" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="56" t="s">
         <v>115</v>
       </c>
       <c r="C12" s="55"/>
@@ -22581,7 +22581,7 @@
       <c r="A13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="56" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="55"/>
@@ -22593,7 +22593,7 @@
       <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="55"/>
@@ -22646,20 +22646,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -22683,7 +22683,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -22695,7 +22695,7 @@
         <v>26</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -22712,7 +22712,7 @@
         <v>131</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
   </sheetData>
@@ -22725,7 +22725,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Documents/Examples/Alexion_NCT04573309_Wilsons/Alexion_NCT04573309_Wilsons.xlsx
+++ b/Documents/Examples/Alexion_NCT04573309_Wilsons/Alexion_NCT04573309_Wilsons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/protocols/Alexion_NCT04573309_Wilsons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1574A11-DECA-5246-9629-A3BC9479E247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CE072F-88AD-4842-8BF3-F2DF7F8A35D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="49200" windowHeight="25420" firstSheet="19" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="49200" windowHeight="25420" firstSheet="19" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3722" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3738" uniqueCount="1749">
   <si>
     <t>name</t>
   </si>
@@ -7420,6 +7420,33 @@
   </si>
   <si>
     <t>@plannedAge/Range/@minValue/Quantity/value</t>
+  </si>
+  <si>
+    <t>AMEND_1</t>
+  </si>
+  <si>
+    <t>The first amendment</t>
+  </si>
+  <si>
+    <t>AMEND_2</t>
+  </si>
+  <si>
+    <t>AMEND_3</t>
+  </si>
+  <si>
+    <t>AMEND_4</t>
+  </si>
+  <si>
+    <t>The second amendment</t>
+  </si>
+  <si>
+    <t>The third amendment</t>
+  </si>
+  <si>
+    <t>The fourth amendment</t>
+  </si>
+  <si>
+    <t>Amendment 4</t>
   </si>
 </sst>
 </file>
@@ -15942,173 +15969,222 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" customWidth="1"/>
-    <col min="5" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1"/>
+    <col min="8" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>1623</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>1726</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:11" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>1723</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>1622</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D6" s="2"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D7" s="2"/>
+      <c r="E7" s="11"/>
       <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D8" s="2"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D9" s="2"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18254,10 +18330,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF7CA68-BC48-5141-BEA0-B0ABEF929D94}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18268,7 +18344,7 @@
     <col min="4" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -18290,8 +18366,11 @@
       <c r="G1" s="14" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="14" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1617</v>
       </c>
@@ -18629,7 +18708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -18698,7 +18777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
